--- a/data/trans_orig/Q02D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R-Provincia-trans_orig.xlsx
@@ -666,7 +666,7 @@
         <v>7.021629822600279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.945933765540889</v>
+        <v>7.945933765540888</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.495309491153149</v>
@@ -681,7 +681,7 @@
         <v>11.95516788826607</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.000797377819188</v>
+        <v>6.00079737781919</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>3.390760313731663</v>
@@ -693,7 +693,7 @@
         <v>10.23028267117638</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>6.993034424547134</v>
+        <v>6.993034424547133</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.128923499696872</v>
+        <v>2.062095554961819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.297816453105876</v>
+        <v>6.275947747879321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.753932054946991</v>
+        <v>6.72417551354617</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.985734726307831</v>
+        <v>3.020883227048059</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.276045298815001</v>
+        <v>8.252794974808483</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.75213440890832</v>
+        <v>10.76460843174745</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.84218966606711</v>
+        <v>4.733816567526606</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.863197302282069</v>
+        <v>2.823365306548496</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.678907142991042</v>
+        <v>7.720851803465584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9.258765215016012</v>
+        <v>9.291748143657358</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>4.81191067476275</v>
+        <v>4.727005378941779</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.187881289747088</v>
+        <v>4.227890784531665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.820008548570157</v>
+        <v>7.900354251669061</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.582106499785549</v>
+        <v>9.456899567450968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.26204132772237</v>
+        <v>21.26204132772236</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.642914825725923</v>
+        <v>4.691792257426719</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.662894805069897</v>
+        <v>9.640999758567599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.29733934486245</v>
+        <v>13.25978338038218</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.904103702090913</v>
+        <v>8.672505730652391</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.089685508572797</v>
+        <v>4.081784969641008</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8.741455166723581</v>
+        <v>8.820790699503855</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.22970301827242</v>
+        <v>11.23702732433475</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>11.23677727943487</v>
+        <v>11.81897746009512</v>
       </c>
     </row>
     <row r="7">
@@ -811,7 +811,7 @@
         <v>9.023492981521395</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.211621218666785</v>
+        <v>8.211621218666787</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>13.2783947640591</v>
@@ -829,7 +829,7 @@
         <v>12.98097376184329</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>11.5923892726045</v>
+        <v>11.59238927260451</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.693266361805924</v>
+        <v>5.602944625763925</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.600859678007422</v>
+        <v>6.581512186025573</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.8267568381177</v>
+        <v>10.86894026280177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.69681897215523</v>
+        <v>6.861702757403761</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8.175543070720254</v>
+        <v>8.147556612270099</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.741664246324382</v>
+        <v>7.594306934678212</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>11.88259676422552</v>
+        <v>12.09299310602172</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.010305392675713</v>
+        <v>9.064592994642291</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.42732129161287</v>
+        <v>7.552906922015961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.408709750772092</v>
+        <v>7.411546912464027</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12.02956980608033</v>
+        <v>11.93228427887573</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>9.455027829964529</v>
+        <v>9.473415555634745</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.819038291504069</v>
+        <v>7.882703479300135</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.75812573556574</v>
+        <v>7.725301303008478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.09056444152038</v>
+        <v>14.13802136656015</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.63720985604242</v>
+        <v>19.86233835738611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.967449715023756</v>
+        <v>9.854819752092059</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.793465407647194</v>
+        <v>8.727098002248244</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>14.59116188178222</v>
+        <v>14.62502293096654</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>13.58405557286597</v>
+        <v>13.53730774858098</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>8.846808652381144</v>
+        <v>8.936381897600503</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8.241302030254479</v>
+        <v>8.204264998452839</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14.12148660011512</v>
+        <v>14.10063239842793</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>13.91785905904723</v>
+        <v>13.86501480674709</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.548448836375672</v>
+        <v>1.544408762929735</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.633738693006892</v>
+        <v>2.64678644058507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.87358901509965</v>
+        <v>7.955799306303591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.5842139402482</v>
+        <v>11.522482407067</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.137448727917838</v>
+        <v>3.165956765885242</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.280777247287181</v>
+        <v>4.240470857453685</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.87613396928738</v>
+        <v>9.911144226124982</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.490992010308206</v>
+        <v>8.55430662008672</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.584359878145193</v>
+        <v>2.570648792765896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.680927408549931</v>
+        <v>3.705751917520871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.525100835123691</v>
+        <v>9.347359775398758</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>10.5031288191583</v>
+        <v>10.71384425381318</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.959799578966107</v>
+        <v>2.907837520145016</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.859538733299694</v>
+        <v>3.778728211776388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.53336355749702</v>
+        <v>10.55977162696618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.00135978557288</v>
+        <v>21.81037695652897</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.634316531559644</v>
+        <v>4.632369162140153</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.264816421622381</v>
+        <v>5.283804255936499</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.1882232973824</v>
+        <v>13.09888716909184</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.25203421724223</v>
+        <v>15.10813084184836</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.676436902630828</v>
+        <v>3.573873778959382</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4.457104123364049</v>
+        <v>4.527606399976237</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11.6878381420467</v>
+        <v>11.51127141897716</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.14322323899716</v>
+        <v>16.91724454960787</v>
       </c>
     </row>
     <row r="13">
@@ -1074,10 +1074,10 @@
         <v>5.845025852426327</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.666660329936961</v>
+        <v>6.666660329936959</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.802823863121397</v>
+        <v>6.802823863121395</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>4.210555217214328</v>
@@ -1086,13 +1086,13 @@
         <v>8.335083025870286</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>8.289928484967298</v>
+        <v>8.2899284849673</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11.49403607966503</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>3.260370842908337</v>
+        <v>3.260370842908338</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>7.414175594576871</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.636388822225366</v>
+        <v>1.643888983839816</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.166304588532224</v>
+        <v>5.182399706724631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.421368829251628</v>
+        <v>5.568316466222135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.359365986455789</v>
+        <v>5.399278574997179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.585729772044562</v>
+        <v>3.601601429868445</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.665151257203781</v>
+        <v>7.715536970499125</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.439422330662191</v>
+        <v>7.351322936046413</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>10.10012749849982</v>
+        <v>10.12174732324719</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.824662359139515</v>
+        <v>2.816872153176713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.911626298517643</v>
+        <v>6.921956443642447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.016765589048032</v>
+        <v>6.992954007272058</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>8.754619162461355</v>
+        <v>8.470100184618</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.33158397063787</v>
+        <v>2.369122874422169</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.627476363951684</v>
+        <v>6.673968949499743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.461084003554046</v>
+        <v>8.503327552388145</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.809543761213079</v>
+        <v>7.783262640153568</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.146254860007944</v>
+        <v>5.239535387285672</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.079940577410975</v>
+        <v>9.015705769599695</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.500140147038188</v>
+        <v>9.375092622020857</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.97131473941346</v>
+        <v>13.76743982988766</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.994343763066486</v>
+        <v>3.875425578534681</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.977168660930569</v>
+        <v>7.967275900841478</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.674459086398187</v>
+        <v>8.658856680725906</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>11.78362200335035</v>
+        <v>11.6557589182896</v>
       </c>
     </row>
     <row r="16">
@@ -1210,10 +1210,10 @@
         <v>4.984483636401499</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.254769193354609</v>
+        <v>3.254769193354608</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.679554406745471</v>
+        <v>3.679554406745472</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>8.748965515615753</v>
@@ -1222,13 +1222,13 @@
         <v>6.273267107170234</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>4.426582486836948</v>
+        <v>4.426582486836949</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>5.010064371855225</v>
+        <v>5.010064371855224</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.750129993107121</v>
+        <v>7.750129993107119</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>5.789397672449907</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.696288109871693</v>
+        <v>4.72345518523889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.243309783274132</v>
+        <v>4.20450335791062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.915827770265058</v>
+        <v>2.896339453932014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.973871567983601</v>
+        <v>2.919964730284782</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.281384044005113</v>
+        <v>7.265612551022476</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.505872685235455</v>
+        <v>5.524073988337587</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.133208231827704</v>
+        <v>4.131338413911598</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.776823584855489</v>
+        <v>3.754364628543038</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.675209227147493</v>
+        <v>6.710362143518094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.246806275016902</v>
+        <v>5.176471800672934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.627427039167793</v>
+        <v>3.643158487941414</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.44793156375376</v>
+        <v>3.497562798255549</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.975632078003656</v>
+        <v>8.127359125216312</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.100699336253145</v>
+        <v>6.171726760528044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.760157396647656</v>
+        <v>3.76484765991334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.551171453528966</v>
+        <v>4.503549021298217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.37291629926773</v>
+        <v>10.46170481812231</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.052615539138348</v>
+        <v>7.165841188536031</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.790334784391133</v>
+        <v>4.784166273697414</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.1606919441295</v>
+        <v>6.181374057712073</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.069840573313712</v>
+        <v>9.194722602513545</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.515624008223081</v>
+        <v>6.379020303922816</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4.206988383263383</v>
+        <v>4.193066405546936</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>5.04397773872566</v>
+        <v>4.959230532998658</v>
       </c>
     </row>
     <row r="19">
@@ -1358,10 +1358,10 @@
         <v>4.446160591987966</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>8.559493979535851</v>
+        <v>8.559493979535853</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>12.22025760155998</v>
+        <v>12.22025760155997</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>4.064261172030435</v>
@@ -1370,7 +1370,7 @@
         <v>3.603150796371931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7.450396028156273</v>
+        <v>7.450396028156272</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>12.13230584265046</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.652671047174972</v>
+        <v>1.667818959969273</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.072016718050303</v>
+        <v>2.074337707944371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.202697211182864</v>
+        <v>5.256768484307574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.31332351375072</v>
+        <v>10.4281120746342</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>4.706134831276309</v>
+        <v>4.732891639778506</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.928201893899737</v>
+        <v>3.903993690089675</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.287667123173489</v>
+        <v>7.278625817886076</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>10.70799738732964</v>
+        <v>10.81271829946707</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.404811711980123</v>
+        <v>3.316727525311145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.207479544661586</v>
+        <v>3.239063340572202</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6.614573506423034</v>
+        <v>6.650363942473132</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>11.02140477781249</v>
+        <v>11.01112875050661</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.378285870428386</v>
+        <v>2.367054312459983</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.921399424488626</v>
+        <v>2.926856697648054</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.362817664303464</v>
+        <v>7.594267490905801</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.72055133218799</v>
+        <v>14.36371348216636</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.952567853728233</v>
+        <v>7.78708984757102</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.071599621100874</v>
+        <v>5.072459639969858</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.09652147300381</v>
+        <v>10.08111383843601</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>14.45191789089764</v>
+        <v>14.43480619783989</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>5.3345117391507</v>
+        <v>5.149931417479828</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4.025098300927726</v>
+        <v>4.070062761340679</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8.38363447623068</v>
+        <v>8.475620222839925</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>13.71483977236187</v>
+        <v>13.89173472486038</v>
       </c>
     </row>
     <row r="22">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>3.088845845592319</v>
+        <v>3.088845845592318</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>3.089930516813514</v>
@@ -1488,10 +1488,10 @@
         <v>12.85405915443293</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>4.677913736692169</v>
+        <v>4.67791373669217</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.85430484286992</v>
+        <v>4.854304842869921</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>11.91326043630129</v>
@@ -1509,7 +1509,7 @@
         <v>11.162905767905</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>16.08280039221143</v>
+        <v>16.08280039221142</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.55885268785768</v>
+        <v>2.565309934510548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.795355075975929</v>
+        <v>2.795034667958753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.741864058113102</v>
+        <v>8.706614038339248</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>2.857142857142857</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.138701755927139</v>
+        <v>4.0741414021588</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.501746847196067</v>
+        <v>4.503926785211914</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.92272238798326</v>
+        <v>10.89650470288234</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.944561767146325</v>
+        <v>9.770221488071343</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.710892163424413</v>
+        <v>3.676163736719624</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.848097801519209</v>
+        <v>3.846980511476087</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10.34236584660876</v>
+        <v>10.35495345295989</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>9.328240804330271</v>
+        <v>10.02610294392341</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.182513840796179</v>
+        <v>4.120739536635469</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.438494636301793</v>
+        <v>3.449054501325923</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.26662024666333</v>
+        <v>11.43767633866801</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>24</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.514725620355826</v>
+        <v>5.462402009716478</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.236006598689982</v>
+        <v>5.228322559893551</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.961150453724</v>
+        <v>12.95269156530853</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>21.56958822665696</v>
+        <v>22.1667109471703</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.749111620877361</v>
+        <v>4.789382636202974</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4.375357859620626</v>
+        <v>4.360988436198236</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11.98303847652573</v>
+        <v>12.00973969157521</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>21.14927410675499</v>
+        <v>20.77254337037269</v>
       </c>
     </row>
     <row r="25">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>6.610183062693229</v>
+        <v>6.610183062693228</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>5.823151595962728</v>
+        <v>5.823151595962729</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>4.205262548226322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.109688682263382</v>
+        <v>4.109688682263381</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>9.263206623047349</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.826118997583483</v>
+        <v>5.768784081491406</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.344654273422075</v>
+        <v>5.371969633190774</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.911251209764876</v>
+        <v>3.903266181163735</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.77674943778528</v>
+        <v>3.760960386284512</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>8.367912992813771</v>
+        <v>8.417721516615144</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>7.016455703425934</v>
+        <v>7.032900750475223</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>5.420326295027453</v>
+        <v>5.417396935661342</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>5.479135382295419</v>
+        <v>5.407772050177976</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>7.566010115899293</v>
+        <v>7.564471774954405</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6.54070414768295</v>
+        <v>6.540231829871429</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4.841326687910157</v>
+        <v>4.896590558808364</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>4.883393761068406</v>
+        <v>4.85710628775087</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.577507131552424</v>
+        <v>7.602368522722538</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.399511282368769</v>
+        <v>6.426843699463047</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.552481150759963</v>
+        <v>4.56937752317814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.504798178233112</v>
+        <v>4.518111523565173</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>10.10896896481489</v>
+        <v>10.24199866801529</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.852762281210588</v>
+        <v>7.799565152580632</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>6.232534606450054</v>
+        <v>6.276511289710068</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>6.354248145765878</v>
+        <v>6.301254535310813</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>8.87946470779573</v>
+        <v>8.886469366068109</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7.177025195980503</v>
+        <v>7.163179450716288</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5.433518724778346</v>
+        <v>5.440233065249126</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>5.507503452021465</v>
+        <v>5.505321920890618</v>
       </c>
     </row>
     <row r="28">
@@ -1766,16 +1766,16 @@
         <v>6.757266584126868</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>8.961910241226553</v>
+        <v>8.961910241226555</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>7.930097976943477</v>
+        <v>7.93009797694348</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>5.344440530702362</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6.034071751229832</v>
+        <v>6.034071751229833</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>8.129569667314652</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.644581461963075</v>
+        <v>3.650941753542623</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.692205972485391</v>
+        <v>4.682991712941492</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.448770960987409</v>
+        <v>6.499607612830713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.497634883101365</v>
+        <v>5.434826932703897</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.864502835868341</v>
+        <v>5.878114605525252</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.533274304152508</v>
+        <v>6.540786250274529</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.573258021119511</v>
+        <v>8.605359241962518</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.347813429173589</v>
+        <v>7.380504150069722</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.079761788589837</v>
+        <v>5.087358914033572</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5.870063927922038</v>
+        <v>5.875252035147895</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7.874085367731793</v>
+        <v>7.833161470058566</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>6.739895447038279</v>
+        <v>6.798106641846479</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.363671523177787</v>
+        <v>4.322906780933084</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.153444691603068</v>
+        <v>5.163339857580088</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.310188404727816</v>
+        <v>7.365005242185354</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.015123261330483</v>
+        <v>7.015620344490151</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.554524582296491</v>
+        <v>6.560538917187563</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.981092088611613</v>
+        <v>6.97737893968058</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.363827228563752</v>
+        <v>9.361121645273121</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.523923552788748</v>
+        <v>8.587694828535996</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.595733349135844</v>
+        <v>5.61218116304787</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6.203524814325197</v>
+        <v>6.190302794051557</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8.455177643265509</v>
+        <v>8.444122861623887</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>7.709904503175761</v>
+        <v>7.776249267272196</v>
       </c>
     </row>
     <row r="31">
